--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -87,91 +87,148 @@
     <t>Mobile網址</t>
   </si>
   <si>
-    <t>http://m2.fnjtd.com</t>
-  </si>
-  <si>
     <t>QATags02040246</t>
   </si>
   <si>
+    <t>GPK_D</t>
+  </si>
+  <si>
+    <t>GPK_A</t>
+  </si>
+  <si>
+    <t>GPK_B</t>
+  </si>
+  <si>
+    <t>GPK_C</t>
+  </si>
+  <si>
+    <t>站名</t>
+  </si>
+  <si>
+    <t>AB005-01</t>
+  </si>
+  <si>
+    <t>QA_batchAutomation</t>
+  </si>
+  <si>
+    <t>批次會員</t>
+  </si>
+  <si>
+    <t>QATEST,DS,DS_player7,DS_player8</t>
+  </si>
+  <si>
+    <t>2001062222418840</t>
+  </si>
+  <si>
+    <t>自動化測試參數設定</t>
+  </si>
+  <si>
+    <t>QA_DS</t>
+  </si>
+  <si>
+    <t>QA_Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 會員等級</t>
+  </si>
+  <si>
+    <t>會員等級-2</t>
+  </si>
+  <si>
+    <t>返水等級-2</t>
+  </si>
+  <si>
+    <t>返水等級</t>
+  </si>
+  <si>
+    <t>會員端設定</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>系统侦测-恶意注册</t>
+  </si>
+  <si>
+    <t>傭金等級</t>
+  </si>
+  <si>
+    <t>傭金等級-2</t>
+  </si>
+  <si>
+    <t>測試Master會員</t>
+  </si>
+  <si>
+    <t>http://www.fnjtd.com</t>
+  </si>
+  <si>
+    <t>http://master.fnjtd.com</t>
+  </si>
+  <si>
     <t>a123456</t>
   </si>
   <si>
-    <t>GPK_D</t>
-  </si>
-  <si>
-    <t>GPK_A</t>
-  </si>
-  <si>
-    <t>GPK_B</t>
-  </si>
-  <si>
-    <t>GPK_C</t>
-  </si>
-  <si>
-    <t>站名</t>
-  </si>
-  <si>
-    <t>AB005-01</t>
-  </si>
-  <si>
-    <t>QA_batchAutomation</t>
-  </si>
-  <si>
-    <t>批次會員</t>
-  </si>
-  <si>
-    <t>QATEST,DS,DS_player7,DS_player8</t>
-  </si>
-  <si>
-    <t>2001062222418840</t>
-  </si>
-  <si>
-    <t>自動化測試參數設定</t>
-  </si>
-  <si>
-    <t>QA_DS</t>
-  </si>
-  <si>
-    <t>QA_Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 會員等級</t>
-  </si>
-  <si>
-    <t>會員等級-2</t>
-  </si>
-  <si>
-    <t>返水等級-2</t>
-  </si>
-  <si>
-    <t>返水等級</t>
-  </si>
-  <si>
-    <t>會員端設定</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>系统侦测-恶意注册</t>
-  </si>
-  <si>
-    <t>傭金等級</t>
-  </si>
-  <si>
-    <t>傭金等級-2</t>
-  </si>
-  <si>
-    <t>測試Master會員</t>
-  </si>
-  <si>
-    <t>http://www.fnjtd.com</t>
-  </si>
-  <si>
-    <t>http://master.fnjtd.com</t>
-  </si>
-  <si>
-    <t>QATags02201750</t>
+    <t>QATags02113425</t>
+  </si>
+  <si>
+    <t>http://www.rfben.com</t>
+  </si>
+  <si>
+    <t>http://master.rfben.com</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>DS_1204,DS_player8</t>
+  </si>
+  <si>
+    <t>QA_Test02201414</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>http://m.rfben.com</t>
+  </si>
+  <si>
+    <t>RD測試站</t>
+  </si>
+  <si>
+    <t>會員等級</t>
+  </si>
+  <si>
+    <t>時來運轉-獎品數量</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>6,8,10,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QATags02264812</t>
+  </si>
+  <si>
+    <t>線上支付URL</t>
+  </si>
+  <si>
+    <t>/Payment?type=UnionScanPayment</t>
+  </si>
+  <si>
+    <t>DS_player4</t>
+  </si>
+  <si>
+    <t>ds0710</t>
+  </si>
+  <si>
+    <t>/OnlineDeposit/Payment?type=WeChatPayment</t>
+  </si>
+  <si>
+    <t>http://m.fnjtd.com</t>
+  </si>
+  <si>
+    <t>QA_Link03161908</t>
   </si>
 </sst>
 </file>
@@ -188,13 +245,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,13 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -230,13 +282,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,262 +569,291 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>620678450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13128154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>116765064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5782224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <v>620678450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>13128154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="2">
-        <v>116765064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5782224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -784,22 +867,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>620678450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13128154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>116765064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5782224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -213,9 +213,6 @@
     <t>線上支付URL</t>
   </si>
   <si>
-    <t>/Payment?type=UnionScanPayment</t>
-  </si>
-  <si>
     <t>DS_player4</t>
   </si>
   <si>
@@ -225,17 +222,20 @@
     <t>/OnlineDeposit/Payment?type=WeChatPayment</t>
   </si>
   <si>
-    <t>http://m.fnjtd.com</t>
-  </si>
-  <si>
-    <t>QA_Link03161908</t>
+    <t>/OnlineDeposit/Payment?type=General</t>
+  </si>
+  <si>
+    <t>http://m2.fnjtd.com</t>
+  </si>
+  <si>
+    <t>DS0710</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +249,15 @@
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,10 +277,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,12 +295,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,7 +584,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -583,10 +595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -603,7 +615,7 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -628,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -639,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -842,7 +854,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
@@ -853,15 +865,18 @@
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -881,10 +896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -926,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
@@ -937,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1151,7 +1166,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -216,9 +216,6 @@
     <t>DS_player4</t>
   </si>
   <si>
-    <t>ds0710</t>
-  </si>
-  <si>
     <t>/OnlineDeposit/Payment?type=WeChatPayment</t>
   </si>
   <si>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t>DS0710</t>
+  </si>
+  <si>
+    <t>DS_player8</t>
+  </si>
+  <si>
+    <t>幸運輪盤-獎品數量</t>
   </si>
 </sst>
 </file>
@@ -581,10 +584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -616,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -651,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -854,18 +857,29 @@
         <v>57</v>
       </c>
       <c r="B32" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -882,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:B32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -941,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
@@ -952,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1161,12 +1175,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -232,17 +232,21 @@
   </si>
   <si>
     <t>幸運輪盤-獎品數量</t>
+  </si>
+  <si>
+    <t>限時優惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -257,7 +261,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -584,20 +595,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -606,7 +617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -622,7 +633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,7 +641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -638,7 +649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -649,7 +660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -660,7 +671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -668,7 +679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -676,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -684,7 +695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -692,7 +703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -700,7 +711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -708,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -716,7 +727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -732,7 +743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -740,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,7 +759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -756,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -764,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -772,7 +783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -780,7 +791,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -788,7 +799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -796,7 +807,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -804,7 +815,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -812,7 +823,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -820,7 +831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -828,7 +839,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -836,7 +847,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -844,7 +855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -852,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -863,7 +874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -871,7 +882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -880,12 +891,21 @@
       </c>
       <c r="C34" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -902,14 +922,14 @@
       <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -918,7 +938,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -934,7 +954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -950,7 +970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -961,7 +981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -972,7 +992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1128,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1168,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1164,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1175,7 +1195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1183,7 +1203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1198,6 +1218,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="05" sheetId="1" r:id="rId1"/>
     <sheet name="06" sheetId="2" r:id="rId2"/>
+    <sheet name="07" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -235,6 +236,79 @@
   </si>
   <si>
     <t>限時優惠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ma.jp777.net/</t>
+  </si>
+  <si>
+    <t>http://www.jp777.net/</t>
+  </si>
+  <si>
+    <t>http://m.jp777.net/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test返水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test返水2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test等級</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hugo777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAtestA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAtestB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAtestC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QAtestD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test佣金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test佣金2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓測機</t>
+  </si>
+  <si>
+    <t>Jojo_lin07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jojo_lin07,hugo777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA00000008</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +347,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,6 +391,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,7 +679,7 @@
   <sheetPr codeName="Worksheet___1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -609,10 +691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -930,10 +1012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -1222,4 +1304,319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>620678450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13128154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1">
+        <v>116765064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5782224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+</worksheet>
 </file>
--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -239,16 +239,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://ma.jp777.net/</t>
-  </si>
-  <si>
-    <t>http://www.jp777.net/</t>
-  </si>
-  <si>
-    <t>http://m.jp777.net/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>QA_test返水</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,10 +267,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QAtestD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>QA_test佣金</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -310,17 +296,44 @@
   <si>
     <t>QA00000008</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報表站台名稱</t>
+  </si>
+  <si>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>AB005</t>
+  </si>
+  <si>
+    <t>AB006</t>
+  </si>
+  <si>
+    <t>QA_Test04272710</t>
+  </si>
+  <si>
+    <t>QAtestD 因為會員數太多導致timeout換一個代理</t>
+  </si>
+  <si>
+    <t>http://www.jp777.net</t>
+  </si>
+  <si>
+    <t>http://m.jp777.net</t>
+  </si>
+  <si>
+    <t>http://ma.jp777.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -335,14 +348,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -677,20 +690,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -699,7 +712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -715,7 +728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,7 +736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -731,7 +744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -742,7 +755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,7 +766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -761,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -769,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -777,7 +790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -785,7 +798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -793,7 +806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,7 +822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -833,7 +846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -841,7 +854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -849,7 +862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -857,7 +870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -865,7 +878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,7 +886,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -881,7 +894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +902,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +910,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -905,7 +918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -913,7 +926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -921,7 +934,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -929,7 +942,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -937,7 +950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -945,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -956,7 +969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -964,7 +977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -975,12 +988,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -998,20 +1019,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1215,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1247,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1263,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1287,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1294,6 +1315,22 @@
       </c>
       <c r="C34" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1308,20 +1345,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1330,50 +1367,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1384,39 +1421,39 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1424,7 +1461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1432,71 +1469,74 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1544,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1560,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1568,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1592,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1600,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1568,15 +1608,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1587,7 +1627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1595,7 +1635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1604,6 +1644,22 @@
       </c>
       <c r="C34" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1611,12 +1667,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -247,14 +247,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QA_test等級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hugo777</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>QAtestA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -267,73 +259,84 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>QA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>壓測機</t>
+  </si>
+  <si>
+    <t>Jojo_lin07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jojo_lin07,hugo777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA00000008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報表站台名稱</t>
+  </si>
+  <si>
+    <t>AB007</t>
+  </si>
+  <si>
+    <t>AB005</t>
+  </si>
+  <si>
+    <t>AB006</t>
+  </si>
+  <si>
+    <t>QA_Test04272710</t>
+  </si>
+  <si>
+    <t>QAtestD 因為會員數太多導致timeout換一個代理</t>
+  </si>
+  <si>
+    <t>http://www.jp777.net</t>
+  </si>
+  <si>
+    <t>http://m.jp777.net</t>
+  </si>
+  <si>
+    <t>http://ma.jp777.net</t>
+  </si>
+  <si>
+    <t>预设</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_test佣金2</t>
+  </si>
+  <si>
     <t>QA_test佣金</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QA_test佣金2</t>
+    <t>预设</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QA</t>
+    <t>预设</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>壓測機</t>
-  </si>
-  <si>
-    <t>Jojo_lin07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jojo_lin07,hugo777</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA00000008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>報表站台名稱</t>
-  </si>
-  <si>
-    <t>AB007</t>
-  </si>
-  <si>
-    <t>AB005</t>
-  </si>
-  <si>
-    <t>AB006</t>
-  </si>
-  <si>
-    <t>QA_Test04272710</t>
-  </si>
-  <si>
-    <t>QAtestD 因為會員數太多導致timeout換一個代理</t>
-  </si>
-  <si>
-    <t>http://www.jp777.net</t>
-  </si>
-  <si>
-    <t>http://m.jp777.net</t>
-  </si>
-  <si>
-    <t>http://ma.jp777.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,14 +351,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -696,14 +699,14 @@
       <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -712,7 +715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -728,7 +731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,7 +739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -744,7 +747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,7 +769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -774,7 +777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -782,7 +785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -790,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -798,7 +801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -806,7 +809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,7 +825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,7 +841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,7 +849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -862,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -870,7 +873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -878,7 +881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +889,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -894,7 +897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -902,7 +905,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -910,7 +913,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -918,7 +921,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -926,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -934,7 +937,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -942,7 +945,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -950,7 +953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -958,7 +961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -969,7 +972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -977,7 +980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -988,7 +991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -996,12 +999,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1022,17 +1025,17 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1325,12 +1328,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1348,17 +1351,17 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1367,50 +1370,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1421,23 +1424,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1469,74 +1472,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1608,15 +1617,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1654,12 +1663,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="05" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -325,6 +325,34 @@
   </si>
   <si>
     <t>预设</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jojo_lin07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky,hugo,jackson,jojo)lin07,DS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>站台 - 子帳號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>站台 - 子帳號密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jojo_lin01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2jjiugjl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1033,22 @@
       </c>
       <c r="B36" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1671,6 +1715,25 @@
         <v>82</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>2jjiugjl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/OnlineDeposit/Payment?type=General</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +727,8 @@
   <sheetPr codeName="Worksheet___1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1399,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD38"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1689,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="05" sheetId="1" r:id="rId1"/>
@@ -274,14 +274,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Jojo_lin07,hugo777</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA00000008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>報表站台名稱</t>
   </si>
   <si>
@@ -357,6 +349,14 @@
   </si>
   <si>
     <t>/OnlineDeposit/Payment?type=General</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jojo_lin07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jojo_lin06, hugo777</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +727,7 @@
   <sheetPr codeName="Worksheet___1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1033,26 +1033,26 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
         <v>98</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1398,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1557,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,29 +1713,29 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="05" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>QA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>壓測機</t>
   </si>
   <si>
@@ -358,17 +354,20 @@
   <si>
     <t>jojo_lin06, hugo777</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA_automaiton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -383,14 +382,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -727,18 +726,18 @@
   <sheetPr codeName="Worksheet___1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -747,7 +746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -763,7 +762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -771,7 +770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -779,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -790,7 +789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,7 +800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -809,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -817,7 +816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -825,7 +824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -833,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -841,7 +840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,15 +848,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,7 +872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -881,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -897,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -905,7 +904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -913,7 +912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,7 +920,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,7 +928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,7 +936,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -945,7 +944,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -953,7 +952,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -961,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -969,7 +968,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -977,7 +976,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -985,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -993,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1031,28 +1030,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1076,14 +1075,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1376,12 +1375,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1398,18 +1397,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1418,50 +1417,50 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1472,23 +1471,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1520,15 +1519,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1552,48 +1551,48 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>620678450</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>13128154</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>116765064</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>5782224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1665,15 +1664,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1684,15 +1683,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1711,31 +1710,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/document/system_config.xlsx
+++ b/test_data/document/system_config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="105">
   <si>
     <t>Portal 網址</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>QA_automaiton</t>
+  </si>
+  <si>
+    <t>代理網址</t>
+  </si>
+  <si>
+    <t>http://ag.fnjtd.com</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet___1"/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1052,6 +1058,14 @@
       </c>
       <c r="B38" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1397,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
